--- a/shift_2026_3.xlsx
+++ b/shift_2026_3.xlsx
@@ -560,7 +560,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>松本, 伊藤, 坂根</t>
+          <t>坂根, 伊藤, 松本</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -590,7 +590,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>坂根, 松本</t>
+          <t>松本, 坂根</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -650,7 +650,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>松本, 坂根, 三上</t>
+          <t>三上, 坂根, 松本</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -680,7 +680,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>松本, 三上</t>
+          <t>三上, 松本</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -800,7 +800,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>坂根, 三上</t>
+          <t>三上, 坂根</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -860,7 +860,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>三上, 坂根</t>
+          <t>坂根, 三上</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1010,7 +1010,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>坂根, 松本</t>
+          <t>松本, 坂根</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1224,17 +1224,17 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>伊藤, 松本, 佐々木</t>
+          <t>松本, 佐々木, 伊藤, 富江</t>
         </is>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1314,7 +1314,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>松本, 伊藤, 佐々木, 鎌田</t>
+          <t>佐々木, 伊藤, 松本, 鎌田</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1344,17 +1344,17 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>(希望者なし)</t>
+          <t>富江</t>
         </is>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1374,7 +1374,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>松本, 坂根</t>
+          <t>坂根, 松本</t>
         </is>
       </c>
       <c r="F31" t="n">
